--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zerasolutionsltd-my.sharepoint.com/personal/jake_still_zest_uk_com/Documents/Documents/Atlantic2025/assets/TrainingData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4CDCEA7C-9EAB-4184-91F0-C04A60CE63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{889595A4-CD8E-4989-AF85-95D37918E63D}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{4CDCEA7C-9EAB-4184-91F0-C04A60CE63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC77D4B-7C9C-4ED1-86A7-10B5B973948C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Logs" sheetId="1" r:id="rId1"/>
+    <sheet name="WeeklyTotalsCoords" sheetId="3" r:id="rId2"/>
+    <sheet name="Totals" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +101,27 @@
   </si>
   <si>
     <t>Fastest Speed 11.1 km/h</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>TotalDistance</t>
+  </si>
+  <si>
+    <t>Calories Burned</t>
   </si>
 </sst>
 </file>
@@ -458,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +493,7 @@
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,17 +509,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44878</v>
       </c>
@@ -509,20 +532,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>SUM(B:B)</f>
-        <v>537.6</v>
-      </c>
-      <c r="K2">
-        <f>SUM(C:C)</f>
-        <v>1083.9199999999996</v>
-      </c>
-      <c r="L2">
-        <f>K2/0.68</f>
-        <v>1593.9999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT(YEAR(A2),WEEKNUM(A2))</f>
+        <v>202247</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:D2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44885</v>
       </c>
@@ -535,8 +554,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F65" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <v>202248</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G65" si="1">SUM(B3:D3)</f>
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44892</v>
       </c>
@@ -549,8 +576,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>202249</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44899</v>
       </c>
@@ -563,8 +598,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>202250</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>32.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44906</v>
       </c>
@@ -580,8 +623,16 @@
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>202251</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44910</v>
       </c>
@@ -594,8 +645,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>202251</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44917</v>
       </c>
@@ -608,8 +667,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>202252</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
@@ -625,8 +692,16 @@
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>20232</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44937</v>
       </c>
@@ -640,8 +715,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>20232</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44938</v>
       </c>
@@ -655,8 +738,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>20232</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44944</v>
       </c>
@@ -670,8 +761,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>20233</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44945</v>
       </c>
@@ -685,8 +784,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>20233</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44951</v>
       </c>
@@ -699,8 +806,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>20234</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44955</v>
       </c>
@@ -713,8 +828,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>20235</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44928</v>
       </c>
@@ -727,8 +850,16 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>20231</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44931</v>
       </c>
@@ -741,8 +872,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>20231</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44966</v>
       </c>
@@ -755,8 +894,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>20236</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44969</v>
       </c>
@@ -769,8 +916,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>20237</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44973</v>
       </c>
@@ -783,8 +938,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>20237</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44976</v>
       </c>
@@ -797,8 +960,16 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>20238</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>48.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44980</v>
       </c>
@@ -811,8 +982,16 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>20238</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44983</v>
       </c>
@@ -825,8 +1004,16 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>20239</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>35.159999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44987</v>
       </c>
@@ -839,8 +1026,16 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>20239</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44990</v>
       </c>
@@ -853,8 +1048,16 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>202310</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>40.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44993</v>
       </c>
@@ -870,8 +1073,16 @@
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>202310</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45001</v>
       </c>
@@ -884,8 +1095,16 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>202311</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45004</v>
       </c>
@@ -898,8 +1117,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>202312</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45008</v>
       </c>
@@ -915,8 +1142,16 @@
       <c r="E29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>202312</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45011</v>
       </c>
@@ -929,8 +1164,16 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>202313</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45015</v>
       </c>
@@ -943,8 +1186,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>202313</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45018</v>
       </c>
@@ -957,8 +1208,16 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>202314</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>38.15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45022</v>
       </c>
@@ -971,8 +1230,16 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>202314</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45025</v>
       </c>
@@ -982,8 +1249,16 @@
       <c r="C34">
         <v>40.07</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>202315</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>40.07</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45029</v>
       </c>
@@ -999,8 +1274,16 @@
       <c r="E35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>202315</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45032</v>
       </c>
@@ -1016,8 +1299,16 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>202316</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45036</v>
       </c>
@@ -1030,8 +1321,16 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>202316</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45039</v>
       </c>
@@ -1044,8 +1343,16 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>202317</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>35.520000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45043</v>
       </c>
@@ -1058,8 +1365,16 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>202317</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45046</v>
       </c>
@@ -1075,8 +1390,16 @@
       <c r="E40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>202318</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45050</v>
       </c>
@@ -1092,8 +1415,16 @@
       <c r="E41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>202318</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45053</v>
       </c>
@@ -1109,8 +1440,16 @@
       <c r="E42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>202319</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>30.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45057</v>
       </c>
@@ -1126,8 +1465,16 @@
       <c r="E43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>202319</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45060</v>
       </c>
@@ -1143,8 +1490,16 @@
       <c r="E44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>202320</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>30.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45064</v>
       </c>
@@ -1160,8 +1515,16 @@
       <c r="E45" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>202320</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45067</v>
       </c>
@@ -1177,8 +1540,16 @@
       <c r="E46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>202321</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45071</v>
       </c>
@@ -1194,10 +1565,18 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>202321</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>45075</v>
+        <v>45074</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1211,8 +1590,16 @@
       <c r="E48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>202322</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>35.94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45078</v>
       </c>
@@ -1225,8 +1612,16 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>202322</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45081</v>
       </c>
@@ -1242,8 +1637,16 @@
       <c r="E50" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>202323</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45085</v>
       </c>
@@ -1256,8 +1659,16 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>202323</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45088</v>
       </c>
@@ -1273,8 +1684,16 @@
       <c r="E52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>202324</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>32.19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45092</v>
       </c>
@@ -1287,8 +1706,16 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>202324</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45095</v>
       </c>
@@ -1304,8 +1731,16 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>202325</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>37.26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45099</v>
       </c>
@@ -1318,8 +1753,16 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>202325</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45102</v>
       </c>
@@ -1332,8 +1775,16 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>202326</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45103</v>
       </c>
@@ -1346,8 +1797,16 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>202326</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45106</v>
       </c>
@@ -1360,8 +1819,16 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>202326</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45109</v>
       </c>
@@ -1373,6 +1840,146 @@
       </c>
       <c r="D59">
         <v>0</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>202327</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>36.590000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>21.65</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>202327</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>21.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45116</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>202328</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45116</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>5.81</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>202328</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>21.58</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>202328</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>21.58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45123</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>202329</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>33.119999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>22.12</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>202329</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>22.12</v>
       </c>
     </row>
   </sheetData>
@@ -1384,4 +1991,622 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202246</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>28.0870344165834</v>
+      </c>
+      <c r="D2">
+        <v>-17.107233951159401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>202247</v>
+      </c>
+      <c r="B3">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A3,Logs!G:G)</f>
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>27.874771051318501</v>
+      </c>
+      <c r="D3">
+        <v>-17.151612627724599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>202248</v>
+      </c>
+      <c r="B4">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A4,Logs!G:G)</f>
+        <v>39.06</v>
+      </c>
+      <c r="C4">
+        <v>27.5647663188706</v>
+      </c>
+      <c r="D4">
+        <v>-17.3369235078621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>202249</v>
+      </c>
+      <c r="B5">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A5,Logs!G:G)</f>
+        <v>32.03</v>
+      </c>
+      <c r="C5">
+        <v>27.3403217722954</v>
+      </c>
+      <c r="D5">
+        <v>-17.541576480017401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>202250</v>
+      </c>
+      <c r="B6">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A6,Logs!G:G)</f>
+        <v>32.28</v>
+      </c>
+      <c r="C6">
+        <v>27.102877809110598</v>
+      </c>
+      <c r="D6">
+        <v>-17.729788646430901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>202251</v>
+      </c>
+      <c r="B7">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A7,Logs!G:G)</f>
+        <v>57.7</v>
+      </c>
+      <c r="C7">
+        <v>26.742115663651798</v>
+      </c>
+      <c r="D7">
+        <v>-18.147711361868598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>202252</v>
+      </c>
+      <c r="B8">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A8,Logs!G:G)</f>
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>26.661015651600799</v>
+      </c>
+      <c r="D8">
+        <v>-18.270159687750599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20232</v>
+      </c>
+      <c r="B9">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A9,Logs!G:G)</f>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C9">
+        <v>26.236647042731899</v>
+      </c>
+      <c r="D9">
+        <v>-18.7123327505101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20233</v>
+      </c>
+      <c r="B10">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A10,Logs!G:G)</f>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C10">
+        <v>25.791026683337599</v>
+      </c>
+      <c r="D10">
+        <v>-19.156661618237301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20234</v>
+      </c>
+      <c r="B11">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A11,Logs!G:G)</f>
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>25.563653680141002</v>
+      </c>
+      <c r="D11">
+        <v>-19.4678166148143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20235</v>
+      </c>
+      <c r="B12">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A12,Logs!G:G)</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C12">
+        <v>25.382146896135399</v>
+      </c>
+      <c r="D12">
+        <v>-19.720824909849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20231</v>
+      </c>
+      <c r="B13">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A13,Logs!G:G)</f>
+        <v>77.3</v>
+      </c>
+      <c r="C13">
+        <v>25.0015602821912</v>
+      </c>
+      <c r="D13">
+        <v>-20.368645836888302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20236</v>
+      </c>
+      <c r="B14">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A14,Logs!G:G)</f>
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>24.822851417419098</v>
+      </c>
+      <c r="D14">
+        <v>-20.7131835463315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20237</v>
+      </c>
+      <c r="B15">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A15,Logs!G:G)</f>
+        <v>60.3</v>
+      </c>
+      <c r="C15">
+        <v>24.4026049249787</v>
+      </c>
+      <c r="D15">
+        <v>-21.0921411797469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20238</v>
+      </c>
+      <c r="B16">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A16,Logs!G:G)</f>
+        <v>88.259999999999991</v>
+      </c>
+      <c r="C16">
+        <v>23.781738580551501</v>
+      </c>
+      <c r="D16">
+        <v>-21.640417490963099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20239</v>
+      </c>
+      <c r="B17">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A17,Logs!G:G)</f>
+        <v>75.16</v>
+      </c>
+      <c r="C17">
+        <v>23.288757047634402</v>
+      </c>
+      <c r="D17">
+        <v>-22.144887322159398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>202310</v>
+      </c>
+      <c r="B18">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A18,Logs!G:G)</f>
+        <v>60.68</v>
+      </c>
+      <c r="C18">
+        <v>22.828261190893599</v>
+      </c>
+      <c r="D18">
+        <v>-22.464858234021602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>202311</v>
+      </c>
+      <c r="B19">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A19,Logs!G:G)</f>
+        <v>28.1</v>
+      </c>
+      <c r="C19">
+        <v>22.628380312242101</v>
+      </c>
+      <c r="D19">
+        <v>-22.631889294503001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>202312</v>
+      </c>
+      <c r="B20">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A20,Logs!G:G)</f>
+        <v>37.1</v>
+      </c>
+      <c r="C20">
+        <v>22.447235787331699</v>
+      </c>
+      <c r="D20">
+        <v>-22.9349694816514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>202313</v>
+      </c>
+      <c r="B21">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A21,Logs!G:G)</f>
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>22.105519614606301</v>
+      </c>
+      <c r="D21">
+        <v>-23.436741406668599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>202314</v>
+      </c>
+      <c r="B22">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A22,Logs!G:G)</f>
+        <v>49.15</v>
+      </c>
+      <c r="C22">
+        <v>21.740067244989199</v>
+      </c>
+      <c r="D22">
+        <v>-23.705118422104398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>202315</v>
+      </c>
+      <c r="B23">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A23,Logs!G:G)</f>
+        <v>54.57</v>
+      </c>
+      <c r="C23">
+        <v>21.3826831639335</v>
+      </c>
+      <c r="D23">
+        <v>-24.0663245618126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>202316</v>
+      </c>
+      <c r="B24">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A24,Logs!G:G)</f>
+        <v>35.5</v>
+      </c>
+      <c r="C24">
+        <v>21.265423600670999</v>
+      </c>
+      <c r="D24">
+        <v>-24.386033161083098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>202317</v>
+      </c>
+      <c r="B25">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A25,Logs!G:G)</f>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="C25">
+        <v>21.041129854388501</v>
+      </c>
+      <c r="D25">
+        <v>-24.8714770177993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>202318</v>
+      </c>
+      <c r="B26">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A26,Logs!G:G)</f>
+        <v>61.08</v>
+      </c>
+      <c r="C26">
+        <v>20.870689020309001</v>
+      </c>
+      <c r="D26">
+        <v>-25.431351413850201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>202319</v>
+      </c>
+      <c r="B27">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A27,Logs!G:G)</f>
+        <v>44.29</v>
+      </c>
+      <c r="C27">
+        <v>20.758066132359399</v>
+      </c>
+      <c r="D27">
+        <v>-25.8402056959163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>202320</v>
+      </c>
+      <c r="B28">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A28,Logs!G:G)</f>
+        <v>45.480000000000004</v>
+      </c>
+      <c r="C28">
+        <v>20.644696802336</v>
+      </c>
+      <c r="D28">
+        <v>-26.260276640517201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>202321</v>
+      </c>
+      <c r="B29">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A29,Logs!G:G)</f>
+        <v>41.05</v>
+      </c>
+      <c r="C29">
+        <v>20.545763032829498</v>
+      </c>
+      <c r="D29">
+        <v>-26.6393926627211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>202322</v>
+      </c>
+      <c r="B30">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A30,Logs!G:G)</f>
+        <v>48.94</v>
+      </c>
+      <c r="C30">
+        <v>20.3660612844469</v>
+      </c>
+      <c r="D30">
+        <v>-27.0685283211849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>202323</v>
+      </c>
+      <c r="B31">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A31,Logs!G:G)</f>
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>20.247353517877901</v>
+      </c>
+      <c r="D31">
+        <v>-27.4205337600918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>202324</v>
+      </c>
+      <c r="B32">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A32,Logs!G:G)</f>
+        <v>54.75</v>
+      </c>
+      <c r="C32">
+        <v>20.127542681507901</v>
+      </c>
+      <c r="D32">
+        <v>-27.929502174819302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>202325</v>
+      </c>
+      <c r="B33">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A33,Logs!G:G)</f>
+        <v>59.08</v>
+      </c>
+      <c r="C33">
+        <v>20.019357150075301</v>
+      </c>
+      <c r="D33">
+        <v>-28.483294057612099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>202326</v>
+      </c>
+      <c r="B34">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A34,Logs!G:G)</f>
+        <v>61.61</v>
+      </c>
+      <c r="C34">
+        <v>19.903929386382</v>
+      </c>
+      <c r="D34">
+        <v>-29.060452208283898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>202327</v>
+      </c>
+      <c r="B35">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A35,Logs!G:G)</f>
+        <v>58.24</v>
+      </c>
+      <c r="C35">
+        <v>19.822374854260001</v>
+      </c>
+      <c r="D35">
+        <v>-29.611150261178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>202328</v>
+      </c>
+      <c r="B36">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A36,Logs!G:G)</f>
+        <v>63.09</v>
+      </c>
+      <c r="C36">
+        <v>19.742435546020499</v>
+      </c>
+      <c r="D36">
+        <v>-30.207688061499798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>202329</v>
+      </c>
+      <c r="B37">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A37,Logs!G:G)</f>
+        <v>55.239999999999995</v>
+      </c>
+      <c r="C37">
+        <v>19.6203889206455</v>
+      </c>
+      <c r="D37">
+        <v>-30.720247379111001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90390148-AE80-4B6E-8748-89A0FF71CD4F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>SUM(Logs!B:B)</f>
+        <v>537.6</v>
+      </c>
+      <c r="B2">
+        <f>SUM(Logs!C:C)</f>
+        <v>1223.8999999999994</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(B2/0.68,0)</f>
+        <v>1800</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(SUM(A2:B2),2)</f>
+        <v>1761.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zerasolutionsltd-my.sharepoint.com/personal/jake_still_zest_uk_com/Documents/Documents/Atlantic2025/assets/TrainingData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{4CDCEA7C-9EAB-4184-91F0-C04A60CE63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC77D4B-7C9C-4ED1-86A7-10B5B973948C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AAC95A-B183-4F22-A59F-5115CD42F6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Calories Burned</t>
+  </si>
+  <si>
+    <t>202332</t>
+  </si>
+  <si>
+    <t>CaloriesBurned</t>
   </si>
 </sst>
 </file>
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,6 +546,9 @@
         <f>SUM(B2:D2)</f>
         <v>24</v>
       </c>
+      <c r="H2">
+        <v>2400</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -555,12 +564,15 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F65" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F71" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G65" si="1">SUM(B3:D3)</f>
+        <f t="shared" ref="G3:G70" si="1">SUM(B3:D3)</f>
         <v>39.06</v>
+      </c>
+      <c r="H3">
+        <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -584,6 +596,9 @@
         <f t="shared" si="1"/>
         <v>32.03</v>
       </c>
+      <c r="H4">
+        <v>3200</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -606,6 +621,9 @@
         <f t="shared" si="1"/>
         <v>32.28</v>
       </c>
+      <c r="H5">
+        <v>3200</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -631,6 +649,9 @@
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
+      <c r="H6">
+        <v>3200</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -653,6 +674,9 @@
         <f t="shared" si="1"/>
         <v>25.2</v>
       </c>
+      <c r="H7">
+        <v>1400</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -675,6 +699,9 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="H8">
+        <v>900</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -700,6 +727,9 @@
         <f t="shared" si="1"/>
         <v>24.8</v>
       </c>
+      <c r="H9">
+        <v>1400</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -723,6 +753,9 @@
         <f t="shared" si="1"/>
         <v>13.4</v>
       </c>
+      <c r="H10">
+        <v>800</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -746,6 +779,9 @@
         <f t="shared" si="1"/>
         <v>26.2</v>
       </c>
+      <c r="H11">
+        <v>1600</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -769,6 +805,9 @@
         <f t="shared" si="1"/>
         <v>26.6</v>
       </c>
+      <c r="H12">
+        <v>1600</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -792,6 +831,9 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="H13">
+        <v>2300</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -814,6 +856,9 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="H14">
+        <v>2300</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -836,6 +881,9 @@
         <f t="shared" si="1"/>
         <v>32.299999999999997</v>
       </c>
+      <c r="H15">
+        <v>3200</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -858,8 +906,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44931</v>
       </c>
@@ -880,8 +931,11 @@
         <f t="shared" si="1"/>
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44966</v>
       </c>
@@ -902,8 +956,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44969</v>
       </c>
@@ -924,8 +981,11 @@
         <f t="shared" si="1"/>
         <v>40.299999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44973</v>
       </c>
@@ -946,8 +1006,11 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44976</v>
       </c>
@@ -968,8 +1031,11 @@
         <f t="shared" si="1"/>
         <v>48.26</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44980</v>
       </c>
@@ -990,8 +1056,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44983</v>
       </c>
@@ -1012,8 +1081,11 @@
         <f t="shared" si="1"/>
         <v>35.159999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44987</v>
       </c>
@@ -1034,8 +1106,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44990</v>
       </c>
@@ -1056,8 +1131,11 @@
         <f t="shared" si="1"/>
         <v>40.68</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44993</v>
       </c>
@@ -1081,8 +1159,11 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45001</v>
       </c>
@@ -1103,8 +1184,11 @@
         <f t="shared" si="1"/>
         <v>28.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45004</v>
       </c>
@@ -1125,8 +1209,11 @@
         <f t="shared" si="1"/>
         <v>35.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45008</v>
       </c>
@@ -1150,8 +1237,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45011</v>
       </c>
@@ -1172,8 +1262,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45015</v>
       </c>
@@ -1194,8 +1287,11 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45018</v>
       </c>
@@ -1216,8 +1312,11 @@
         <f t="shared" si="1"/>
         <v>38.15</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45022</v>
       </c>
@@ -1238,8 +1337,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45025</v>
       </c>
@@ -1257,8 +1359,11 @@
         <f t="shared" si="1"/>
         <v>40.07</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45029</v>
       </c>
@@ -1282,8 +1387,11 @@
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45032</v>
       </c>
@@ -1307,8 +1415,11 @@
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45036</v>
       </c>
@@ -1329,8 +1440,11 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45039</v>
       </c>
@@ -1351,8 +1465,11 @@
         <f t="shared" si="1"/>
         <v>35.520000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45043</v>
       </c>
@@ -1373,8 +1490,11 @@
         <f t="shared" si="1"/>
         <v>20.64</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45046</v>
       </c>
@@ -1398,8 +1518,11 @@
         <f t="shared" si="1"/>
         <v>40.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45050</v>
       </c>
@@ -1423,8 +1546,11 @@
         <f t="shared" si="1"/>
         <v>20.48</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45053</v>
       </c>
@@ -1448,8 +1574,11 @@
         <f t="shared" si="1"/>
         <v>30.04</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45057</v>
       </c>
@@ -1473,8 +1602,11 @@
         <f t="shared" si="1"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45060</v>
       </c>
@@ -1498,8 +1630,11 @@
         <f t="shared" si="1"/>
         <v>30.19</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45064</v>
       </c>
@@ -1523,8 +1658,11 @@
         <f t="shared" si="1"/>
         <v>15.29</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45067</v>
       </c>
@@ -1548,8 +1686,11 @@
         <f t="shared" si="1"/>
         <v>30.05</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45071</v>
       </c>
@@ -1573,8 +1714,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45074</v>
       </c>
@@ -1598,8 +1742,11 @@
         <f t="shared" si="1"/>
         <v>35.94</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45078</v>
       </c>
@@ -1620,8 +1767,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45081</v>
       </c>
@@ -1645,8 +1795,11 @@
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45085</v>
       </c>
@@ -1667,8 +1820,11 @@
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45088</v>
       </c>
@@ -1692,8 +1848,11 @@
         <f t="shared" si="1"/>
         <v>32.19</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45092</v>
       </c>
@@ -1714,8 +1873,11 @@
         <f t="shared" si="1"/>
         <v>22.56</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45095</v>
       </c>
@@ -1739,8 +1901,11 @@
         <f t="shared" si="1"/>
         <v>37.26</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45099</v>
       </c>
@@ -1761,8 +1926,11 @@
         <f t="shared" si="1"/>
         <v>21.82</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45102</v>
       </c>
@@ -1783,8 +1951,11 @@
         <f t="shared" si="1"/>
         <v>26.04</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45103</v>
       </c>
@@ -1805,8 +1976,11 @@
         <f t="shared" si="1"/>
         <v>18.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45106</v>
       </c>
@@ -1827,8 +2001,11 @@
         <f t="shared" si="1"/>
         <v>17.37</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45109</v>
       </c>
@@ -1849,8 +2026,11 @@
         <f t="shared" si="1"/>
         <v>36.590000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45113</v>
       </c>
@@ -1871,8 +2051,11 @@
         <f t="shared" si="1"/>
         <v>21.65</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45116</v>
       </c>
@@ -1893,8 +2076,11 @@
         <f t="shared" si="1"/>
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45116</v>
       </c>
@@ -1915,8 +2101,11 @@
         <f t="shared" si="1"/>
         <v>5.81</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45119</v>
       </c>
@@ -1937,8 +2126,11 @@
         <f t="shared" si="1"/>
         <v>21.58</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45123</v>
       </c>
@@ -1959,8 +2151,11 @@
         <f t="shared" si="1"/>
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45127</v>
       </c>
@@ -1980,6 +2175,159 @@
       <c r="G65">
         <f t="shared" si="1"/>
         <v>22.12</v>
+      </c>
+      <c r="H65">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45130</v>
+      </c>
+      <c r="B66">
+        <v>42.18</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>202330</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>42.18</v>
+      </c>
+      <c r="H66">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>21.28</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v>202330</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>21.28</v>
+      </c>
+      <c r="H67">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45137</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="0"/>
+        <v>202331</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>32.880000000000003</v>
+      </c>
+      <c r="H68">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="0"/>
+        <v>202331</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H69">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45144</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="0"/>
+        <v>202332</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>37.159999999999997</v>
+      </c>
+      <c r="H70">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>21.6</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="0"/>
+        <v>202332</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71" si="2">SUM(B71:D71)</f>
+        <v>21.6</v>
+      </c>
+      <c r="H71">
+        <v>1932</v>
       </c>
     </row>
   </sheetData>
@@ -1995,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2559,6 +2907,51 @@
         <v>-30.720247379111001</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>202330</v>
+      </c>
+      <c r="B38">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A38,Logs!G:G)</f>
+        <v>63.46</v>
+      </c>
+      <c r="C38">
+        <v>19.546957076009701</v>
+      </c>
+      <c r="D38">
+        <v>-31.320175957187701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>202331</v>
+      </c>
+      <c r="B39">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A39,Logs!G:G)</f>
+        <v>52.88</v>
+      </c>
+      <c r="C39">
+        <v>19.5242960448353</v>
+      </c>
+      <c r="D39">
+        <v>-31.8233046098869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A40,Logs!G:G)</f>
+        <v>58.76</v>
+      </c>
+      <c r="C40">
+        <v>19.472323610455401</v>
+      </c>
+      <c r="D40">
+        <v>-32.382509450427598</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2566,15 +2959,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90390148-AE80-4B6E-8748-89A0FF71CD4F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2587,23 +2980,30 @@
       <c r="D1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>537.6</v>
+        <v>599.78</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>1223.8999999999994</v>
+        <v>1336.8199999999995</v>
       </c>
       <c r="C2">
         <f>ROUND(B2/0.68,0)</f>
-        <v>1800</v>
+        <v>1966</v>
       </c>
       <c r="D2">
         <f>ROUND(SUM(A2:B2),2)</f>
-        <v>1761.5</v>
+        <v>1936.6</v>
+      </c>
+      <c r="E2">
+        <f>SUM(Logs!H:H)</f>
+        <v>158016</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AAC95A-B183-4F22-A59F-5115CD42F6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0E565-0A7D-4169-A7A4-4CFEE5A04C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -124,10 +124,13 @@
     <t>Calories Burned</t>
   </si>
   <si>
-    <t>202332</t>
+    <t>CaloriesBurned</t>
   </si>
   <si>
-    <t>CaloriesBurned</t>
+    <t>Great Ouse Marathon 2023</t>
+  </si>
+  <si>
+    <t>Ancholme Head Race 2023</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -173,6 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F71" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F99" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -2323,11 +2327,717 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G99" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
         <v>1932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45151</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="0"/>
+        <v>202333</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>39.450000000000003</v>
+      </c>
+      <c r="H72">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>22.03</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="0"/>
+        <v>202333</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>22.03</v>
+      </c>
+      <c r="H73">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45158</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="0"/>
+        <v>202334</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>35.119999999999997</v>
+      </c>
+      <c r="H74">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>17</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="0"/>
+        <v>202334</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H75">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45165</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>37.36</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="0"/>
+        <v>202335</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>37.36</v>
+      </c>
+      <c r="H76">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>11.44</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="0"/>
+        <v>202335</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>11.44</v>
+      </c>
+      <c r="H77">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45172</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>23.51</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="0"/>
+        <v>202336</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>23.51</v>
+      </c>
+      <c r="H78">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="0"/>
+        <v>202336</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="H79">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>26.86</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="0"/>
+        <v>202337</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>26.86</v>
+      </c>
+      <c r="H80">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>12.79</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="0"/>
+        <v>202337</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>12.79</v>
+      </c>
+      <c r="H81">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45186</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="0"/>
+        <v>202338</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>34.979999999999997</v>
+      </c>
+      <c r="H82">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="0"/>
+        <v>202338</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H83">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45193</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>40.01</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="0"/>
+        <v>202339</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>40.01</v>
+      </c>
+      <c r="H84">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>11.6</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="0"/>
+        <v>202339</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>11.6</v>
+      </c>
+      <c r="H85">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>35.54</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="0"/>
+        <v>202340</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>35.54</v>
+      </c>
+      <c r="H86">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B87">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="0"/>
+        <v>202340</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H87">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>45207</v>
+      </c>
+      <c r="B88">
+        <v>40</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="0"/>
+        <v>202341</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H88">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="0"/>
+        <v>202341</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H89">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>45214</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>45.16</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="0"/>
+        <v>202342</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>45.16</v>
+      </c>
+      <c r="H90">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B91">
+        <v>28.5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="0"/>
+        <v>202342</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="H91">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>45221</v>
+      </c>
+      <c r="B92">
+        <v>42</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="0"/>
+        <v>202343</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H92">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B93">
+        <v>29</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="0"/>
+        <v>202343</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H93">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45228</v>
+      </c>
+      <c r="B94">
+        <v>42</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="0"/>
+        <v>202344</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H94">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B95">
+        <v>28.9</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="0"/>
+        <v>202344</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>28.9</v>
+      </c>
+      <c r="H95">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>27.86</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="0"/>
+        <v>202345</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>27.86</v>
+      </c>
+      <c r="H96">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B97">
+        <v>29.3</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="0"/>
+        <v>202345</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>29.3</v>
+      </c>
+      <c r="H97">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>45242</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>41.29</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="0"/>
+        <v>202346</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>41.29</v>
+      </c>
+      <c r="H98">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B99">
+        <v>25.6</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="0"/>
+        <v>202346</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>25.6</v>
+      </c>
+      <c r="H99">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -2343,19 +3053,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
@@ -2369,7 +3079,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>202246</v>
       </c>
       <c r="B2">
@@ -2383,7 +3093,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>202247</v>
       </c>
       <c r="B3">
@@ -2398,7 +3108,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>202248</v>
       </c>
       <c r="B4">
@@ -2413,7 +3123,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>202249</v>
       </c>
       <c r="B5">
@@ -2428,7 +3138,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>202250</v>
       </c>
       <c r="B6">
@@ -2443,7 +3153,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>202251</v>
       </c>
       <c r="B7">
@@ -2458,7 +3168,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>202252</v>
       </c>
       <c r="B8">
@@ -2473,7 +3183,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>20232</v>
       </c>
       <c r="B9">
@@ -2488,7 +3198,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>20233</v>
       </c>
       <c r="B10">
@@ -2503,7 +3213,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>20234</v>
       </c>
       <c r="B11">
@@ -2518,7 +3228,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>20235</v>
       </c>
       <c r="B12">
@@ -2533,7 +3243,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>20231</v>
       </c>
       <c r="B13">
@@ -2548,7 +3258,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>20236</v>
       </c>
       <c r="B14">
@@ -2563,7 +3273,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>20237</v>
       </c>
       <c r="B15">
@@ -2578,7 +3288,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>20238</v>
       </c>
       <c r="B16">
@@ -2593,7 +3303,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>20239</v>
       </c>
       <c r="B17">
@@ -2608,7 +3318,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>202310</v>
       </c>
       <c r="B18">
@@ -2623,7 +3333,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>202311</v>
       </c>
       <c r="B19">
@@ -2638,7 +3348,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>202312</v>
       </c>
       <c r="B20">
@@ -2653,7 +3363,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>202313</v>
       </c>
       <c r="B21">
@@ -2668,7 +3378,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>202314</v>
       </c>
       <c r="B22">
@@ -2683,7 +3393,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>202315</v>
       </c>
       <c r="B23">
@@ -2698,7 +3408,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>202316</v>
       </c>
       <c r="B24">
@@ -2713,7 +3423,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>202317</v>
       </c>
       <c r="B25">
@@ -2728,7 +3438,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>202318</v>
       </c>
       <c r="B26">
@@ -2743,7 +3453,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>202319</v>
       </c>
       <c r="B27">
@@ -2758,7 +3468,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>202320</v>
       </c>
       <c r="B28">
@@ -2773,7 +3483,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>202321</v>
       </c>
       <c r="B29">
@@ -2788,7 +3498,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>202322</v>
       </c>
       <c r="B30">
@@ -2803,7 +3513,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="5">
         <v>202323</v>
       </c>
       <c r="B31">
@@ -2818,7 +3528,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="5">
         <v>202324</v>
       </c>
       <c r="B32">
@@ -2833,7 +3543,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="5">
         <v>202325</v>
       </c>
       <c r="B33">
@@ -2848,7 +3558,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="5">
         <v>202326</v>
       </c>
       <c r="B34">
@@ -2863,7 +3573,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="5">
         <v>202327</v>
       </c>
       <c r="B35">
@@ -2878,7 +3588,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="5">
         <v>202328</v>
       </c>
       <c r="B36">
@@ -2893,7 +3603,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="5">
         <v>202329</v>
       </c>
       <c r="B37">
@@ -2908,7 +3618,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="5">
         <v>202330</v>
       </c>
       <c r="B38">
@@ -2923,7 +3633,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="5">
         <v>202331</v>
       </c>
       <c r="B39">
@@ -2938,8 +3648,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>28</v>
+      <c r="A40" s="5">
+        <v>202332</v>
       </c>
       <c r="B40">
         <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A40,Logs!G:G)</f>
@@ -2950,6 +3660,216 @@
       </c>
       <c r="D40">
         <v>-32.382509450427598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>202333</v>
+      </c>
+      <c r="B41">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A41,Logs!G:G)</f>
+        <v>61.480000000000004</v>
+      </c>
+      <c r="C41">
+        <v>19.408587011744899</v>
+      </c>
+      <c r="D41">
+        <v>-32.965743240464597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>202334</v>
+      </c>
+      <c r="B42">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A42,Logs!G:G)</f>
+        <v>52.12</v>
+      </c>
+      <c r="C42">
+        <v>19.3387598150588</v>
+      </c>
+      <c r="D42">
+        <v>-33.465532668974099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>202335</v>
+      </c>
+      <c r="B43">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A43,Logs!G:G)</f>
+        <v>48.8</v>
+      </c>
+      <c r="C43">
+        <v>19.322345283869701</v>
+      </c>
+      <c r="D43">
+        <v>-33.954730457608299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>202336</v>
+      </c>
+      <c r="B44">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A44,Logs!G:G)</f>
+        <v>31.730000000000004</v>
+      </c>
+      <c r="C44">
+        <v>19.2834309462737</v>
+      </c>
+      <c r="D44">
+        <v>-34.2547498485375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>202337</v>
+      </c>
+      <c r="B45">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A45,Logs!G:G)</f>
+        <v>39.65</v>
+      </c>
+      <c r="C45">
+        <v>19.249024033972901</v>
+      </c>
+      <c r="D45">
+        <v>-34.631881252474798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>202338</v>
+      </c>
+      <c r="B46">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A46,Logs!G:G)</f>
+        <v>44.199999999999996</v>
+      </c>
+      <c r="C46">
+        <v>19.162689323613399</v>
+      </c>
+      <c r="D46">
+        <v>-35.043282709055397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>202339</v>
+      </c>
+      <c r="B47">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A47,Logs!G:G)</f>
+        <v>51.61</v>
+      </c>
+      <c r="C47">
+        <v>19.0994929338463</v>
+      </c>
+      <c r="D47">
+        <v>-35.527917032935498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>202340</v>
+      </c>
+      <c r="B48">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A48,Logs!G:G)</f>
+        <v>50.54</v>
+      </c>
+      <c r="C48">
+        <v>19.0010436616829</v>
+      </c>
+      <c r="D48">
+        <v>-35.996731373293997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>202341</v>
+      </c>
+      <c r="B49">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A49,Logs!G:G)</f>
+        <v>63</v>
+      </c>
+      <c r="C49">
+        <v>18.958084078680699</v>
+      </c>
+      <c r="D49">
+        <v>-36.593744743422498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>202342</v>
+      </c>
+      <c r="B50">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A50,Logs!G:G)</f>
+        <v>73.66</v>
+      </c>
+      <c r="C50">
+        <v>18.909478878385201</v>
+      </c>
+      <c r="D50">
+        <v>-37.293565679102997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>202343</v>
+      </c>
+      <c r="B51">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A51,Logs!G:G)</f>
+        <v>71</v>
+      </c>
+      <c r="C51">
+        <v>18.859701771728499</v>
+      </c>
+      <c r="D51">
+        <v>-37.964381854448199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>202344</v>
+      </c>
+      <c r="B52">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A52,Logs!G:G)</f>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="C52">
+        <v>18.788899978552401</v>
+      </c>
+      <c r="D52">
+        <v>-38.6342713417122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>202345</v>
+      </c>
+      <c r="B53">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A53,Logs!G:G)</f>
+        <v>57.16</v>
+      </c>
+      <c r="C53">
+        <v>18.733137990217799</v>
+      </c>
+      <c r="D53">
+        <v>-39.181930205504102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>202346</v>
+      </c>
+      <c r="B54">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A54,Logs!G:G)</f>
+        <v>66.89</v>
+      </c>
+      <c r="C54">
+        <v>18.648595407663802</v>
+      </c>
+      <c r="D54">
+        <v>-39.804179876092903</v>
       </c>
     </row>
   </sheetData>
@@ -2966,6 +3886,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -2981,29 +3904,29 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>599.78</v>
+        <v>895.07999999999993</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>1336.8199999999995</v>
+        <v>1824.2599999999991</v>
       </c>
       <c r="C2">
-        <f>ROUND(B2/0.68,0)</f>
-        <v>1966</v>
+        <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
+        <v>2639</v>
       </c>
       <c r="D2">
         <f>ROUND(SUM(A2:B2),2)</f>
-        <v>1936.6</v>
+        <v>2719.34</v>
       </c>
       <c r="E2">
         <f>SUM(Logs!H:H)</f>
-        <v>158016</v>
+        <v>216014</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0E565-0A7D-4169-A7A4-4CFEE5A04C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF26A4-55C5-4AA4-AF99-C6AAFF1276E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,18 @@
   <si>
     <t>Ancholme Head Race 2023</t>
   </si>
+  <si>
+    <t>Christmas  Regatta</t>
+  </si>
+  <si>
+    <t>Incorrect month Filled in</t>
+  </si>
+  <si>
+    <t>Had wrong month date input. So 20231 is now 0, and the other two entries have gone into 20235,20236.</t>
+  </si>
+  <si>
+    <t>Manually typed in 20241 so two data points would aggregate to same group than split to two different</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -176,7 +188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F99" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F115" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -891,7 +902,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44928</v>
+        <v>44959</v>
       </c>
       <c r="B16">
         <v>40</v>
@@ -902,9 +913,12 @@
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>20231</v>
+        <v>20235</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -916,7 +930,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44931</v>
+        <v>44962</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -927,9 +941,12 @@
       <c r="D17">
         <v>0</v>
       </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>20231</v>
+        <v>20236</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
@@ -2327,7 +2344,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G99" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G114" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -3039,6 +3056,389 @@
       <c r="H99">
         <v>1400</v>
       </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B100">
+        <v>42.2</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="0"/>
+        <v>202347</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>42.2</v>
+      </c>
+      <c r="H100">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B101">
+        <v>29</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="0"/>
+        <v>202347</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H101">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="0"/>
+        <v>202348</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H102">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>7.42</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="0"/>
+        <v>202348</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>7.42</v>
+      </c>
+      <c r="H103">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>27.11</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="0"/>
+        <v>202349</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>27.11</v>
+      </c>
+      <c r="H104">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B105">
+        <v>21.5</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="0"/>
+        <v>202349</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>21.5</v>
+      </c>
+      <c r="H105">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B106">
+        <v>28.4</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="0"/>
+        <v>202350</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>28.4</v>
+      </c>
+      <c r="H106">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B107">
+        <v>29.2</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="0"/>
+        <v>202350</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>29.2</v>
+      </c>
+      <c r="H107">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>45277</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>20.63</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="0"/>
+        <v>202351</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>20.63</v>
+      </c>
+      <c r="H108">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>24.2</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="0"/>
+        <v>202351</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>24.2</v>
+      </c>
+      <c r="H109">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B110">
+        <v>22.1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="0"/>
+        <v>202351</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>22.1</v>
+      </c>
+      <c r="H110">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>45284</v>
+      </c>
+      <c r="B111">
+        <v>28.5</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="0"/>
+        <v>202352</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="H111">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B112">
+        <v>30</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="0"/>
+        <v>202352</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H112">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B113">
+        <v>30</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113">
+        <v>20241</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H113">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B114">
+        <v>30</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="0"/>
+        <v>20241</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H114">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M1:M3">
@@ -3053,19 +3453,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
@@ -3077,9 +3477,12 @@
       <c r="D1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>202246</v>
       </c>
       <c r="B2">
@@ -3092,8 +3495,8 @@
         <v>-17.107233951159401</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>202247</v>
       </c>
       <c r="B3">
@@ -3107,8 +3510,8 @@
         <v>-17.151612627724599</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>202248</v>
       </c>
       <c r="B4">
@@ -3122,8 +3525,8 @@
         <v>-17.3369235078621</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>202249</v>
       </c>
       <c r="B5">
@@ -3137,8 +3540,8 @@
         <v>-17.541576480017401</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>202250</v>
       </c>
       <c r="B6">
@@ -3152,8 +3555,8 @@
         <v>-17.729788646430901</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>202251</v>
       </c>
       <c r="B7">
@@ -3167,8 +3570,8 @@
         <v>-18.147711361868598</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>202252</v>
       </c>
       <c r="B8">
@@ -3182,8 +3585,8 @@
         <v>-18.270159687750599</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>20232</v>
       </c>
       <c r="B9">
@@ -3197,8 +3600,8 @@
         <v>-18.7123327505101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>20233</v>
       </c>
       <c r="B10">
@@ -3212,8 +3615,8 @@
         <v>-19.156661618237301</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>20234</v>
       </c>
       <c r="B11">
@@ -3227,13 +3630,13 @@
         <v>-19.4678166148143</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>20235</v>
       </c>
       <c r="B12">
         <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A12,Logs!G:G)</f>
-        <v>32.299999999999997</v>
+        <v>72.3</v>
       </c>
       <c r="C12">
         <v>25.382146896135399</v>
@@ -3242,13 +3645,13 @@
         <v>-19.720824909849</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>20231</v>
       </c>
       <c r="B13">
         <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A13,Logs!G:G)</f>
-        <v>77.3</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>25.0015602821912</v>
@@ -3256,14 +3659,17 @@
       <c r="D13">
         <v>-20.368645836888302</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>20236</v>
       </c>
       <c r="B14">
         <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A14,Logs!G:G)</f>
-        <v>40</v>
+        <v>77.3</v>
       </c>
       <c r="C14">
         <v>24.822851417419098</v>
@@ -3272,8 +3678,8 @@
         <v>-20.7131835463315</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>20237</v>
       </c>
       <c r="B15">
@@ -3287,8 +3693,8 @@
         <v>-21.0921411797469</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>20238</v>
       </c>
       <c r="B16">
@@ -3303,7 +3709,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17">
         <v>20239</v>
       </c>
       <c r="B17">
@@ -3318,7 +3724,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18">
         <v>202310</v>
       </c>
       <c r="B18">
@@ -3333,7 +3739,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19">
         <v>202311</v>
       </c>
       <c r="B19">
@@ -3348,7 +3754,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20">
         <v>202312</v>
       </c>
       <c r="B20">
@@ -3363,7 +3769,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21">
         <v>202313</v>
       </c>
       <c r="B21">
@@ -3378,7 +3784,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22">
         <v>202314</v>
       </c>
       <c r="B22">
@@ -3393,7 +3799,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23">
         <v>202315</v>
       </c>
       <c r="B23">
@@ -3408,7 +3814,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24">
         <v>202316</v>
       </c>
       <c r="B24">
@@ -3423,7 +3829,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25">
         <v>202317</v>
       </c>
       <c r="B25">
@@ -3438,7 +3844,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26">
         <v>202318</v>
       </c>
       <c r="B26">
@@ -3453,7 +3859,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27">
         <v>202319</v>
       </c>
       <c r="B27">
@@ -3468,7 +3874,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28">
         <v>202320</v>
       </c>
       <c r="B28">
@@ -3483,7 +3889,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29">
         <v>202321</v>
       </c>
       <c r="B29">
@@ -3498,7 +3904,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30">
         <v>202322</v>
       </c>
       <c r="B30">
@@ -3513,7 +3919,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31">
         <v>202323</v>
       </c>
       <c r="B31">
@@ -3528,7 +3934,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32">
         <v>202324</v>
       </c>
       <c r="B32">
@@ -3543,7 +3949,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="A33">
         <v>202325</v>
       </c>
       <c r="B33">
@@ -3558,7 +3964,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34">
         <v>202326</v>
       </c>
       <c r="B34">
@@ -3573,7 +3979,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="A35">
         <v>202327</v>
       </c>
       <c r="B35">
@@ -3588,7 +3994,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="A36">
         <v>202328</v>
       </c>
       <c r="B36">
@@ -3603,7 +4009,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="A37">
         <v>202329</v>
       </c>
       <c r="B37">
@@ -3618,7 +4024,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="A38">
         <v>202330</v>
       </c>
       <c r="B38">
@@ -3633,7 +4039,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="A39">
         <v>202331</v>
       </c>
       <c r="B39">
@@ -3648,7 +4054,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+      <c r="A40">
         <v>202332</v>
       </c>
       <c r="B40">
@@ -3663,7 +4069,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+      <c r="A41">
         <v>202333</v>
       </c>
       <c r="B41">
@@ -3678,7 +4084,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+      <c r="A42">
         <v>202334</v>
       </c>
       <c r="B42">
@@ -3693,7 +4099,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+      <c r="A43">
         <v>202335</v>
       </c>
       <c r="B43">
@@ -3708,7 +4114,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="A44">
         <v>202336</v>
       </c>
       <c r="B44">
@@ -3723,7 +4129,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="A45">
         <v>202337</v>
       </c>
       <c r="B45">
@@ -3738,7 +4144,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="A46">
         <v>202338</v>
       </c>
       <c r="B46">
@@ -3753,7 +4159,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+      <c r="A47">
         <v>202339</v>
       </c>
       <c r="B47">
@@ -3768,7 +4174,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+      <c r="A48">
         <v>202340</v>
       </c>
       <c r="B48">
@@ -3783,7 +4189,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+      <c r="A49">
         <v>202341</v>
       </c>
       <c r="B49">
@@ -3798,7 +4204,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+      <c r="A50">
         <v>202342</v>
       </c>
       <c r="B50">
@@ -3813,7 +4219,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+      <c r="A51">
         <v>202343</v>
       </c>
       <c r="B51">
@@ -3828,7 +4234,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52">
         <v>202344</v>
       </c>
       <c r="B52">
@@ -3843,7 +4249,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+      <c r="A53">
         <v>202345</v>
       </c>
       <c r="B53">
@@ -3858,7 +4264,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="A54">
         <v>202346</v>
       </c>
       <c r="B54">
@@ -3870,6 +4276,111 @@
       </c>
       <c r="D54">
         <v>-39.804179876092903</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>202347</v>
+      </c>
+      <c r="B55">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A55,Logs!G:G)</f>
+        <v>71.2</v>
+      </c>
+      <c r="C55">
+        <v>18.5547211464913</v>
+      </c>
+      <c r="D55">
+        <v>-40.4726373413814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>202348</v>
+      </c>
+      <c r="B56">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A56,Logs!G:G)</f>
+        <v>47.72</v>
+      </c>
+      <c r="C56">
+        <v>18.5290098581176</v>
+      </c>
+      <c r="D56">
+        <v>-40.924701656027999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>202349</v>
+      </c>
+      <c r="B57">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A57,Logs!G:G)</f>
+        <v>48.61</v>
+      </c>
+      <c r="C57">
+        <v>18.512315714568299</v>
+      </c>
+      <c r="D57">
+        <v>-41.387065084529802</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>202350</v>
+      </c>
+      <c r="B58">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A58,Logs!G:G)</f>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="C58">
+        <v>18.477973983617101</v>
+      </c>
+      <c r="D58">
+        <v>-41.930764146943403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>202351</v>
+      </c>
+      <c r="B59">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A59,Logs!G:G)</f>
+        <v>66.930000000000007</v>
+      </c>
+      <c r="C59">
+        <v>18.461413880242201</v>
+      </c>
+      <c r="D59">
+        <v>-42.4792807343619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>202352</v>
+      </c>
+      <c r="B60">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A60,Logs!G:G)</f>
+        <v>58.5</v>
+      </c>
+      <c r="C60">
+        <v>18.442494472528502</v>
+      </c>
+      <c r="D60">
+        <v>-43.036923292509499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>20241</v>
+      </c>
+      <c r="B61">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A61,Logs!G:G)</f>
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>18.4102447253923</v>
+      </c>
+      <c r="D61">
+        <v>-43.604855183042297</v>
       </c>
     </row>
   </sheetData>
@@ -3881,13 +4392,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90390148-AE80-4B6E-8748-89A0FF71CD4F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3910,23 +4422,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>895.07999999999993</v>
+        <v>1185.9799999999998</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>1824.2599999999991</v>
+        <v>1943.9199999999992</v>
       </c>
       <c r="C2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>2639</v>
+        <v>2815</v>
       </c>
       <c r="D2">
         <f>ROUND(SUM(A2:B2),2)</f>
-        <v>2719.34</v>
+        <v>3129.9</v>
       </c>
       <c r="E2">
         <f>SUM(Logs!H:H)</f>
-        <v>216014</v>
+        <v>243242</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF26A4-55C5-4AA4-AF99-C6AAFF1276E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70943A99-4216-4E52-97CF-A0B407637E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
+    <workbookView xWindow="3072" yWindow="1380" windowWidth="15360" windowHeight="8964" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +246,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F115" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F118" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -2344,7 +2344,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G114" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G118" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -3438,7 +3438,104 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>45298</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>36.26</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="0"/>
+        <v>20242</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>36.26</v>
+      </c>
+      <c r="H115">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B116">
+        <v>30</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="0"/>
+        <v>20242</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H116">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45305</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>44.24</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="0"/>
+        <v>20243</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>44.24</v>
+      </c>
+      <c r="H117">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B118">
+        <v>30</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="0"/>
+        <v>20243</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H118">
+        <v>1900</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M1:M3">
@@ -3453,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4383,6 +4480,36 @@
         <v>-43.604855183042297</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>20242</v>
+      </c>
+      <c r="B62">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A62,Logs!G:G)</f>
+        <v>66.259999999999991</v>
+      </c>
+      <c r="C62">
+        <v>18.345831645453401</v>
+      </c>
+      <c r="D62">
+        <v>-44.230595600170702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>20243</v>
+      </c>
+      <c r="B63">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A63,Logs!G:G)</f>
+        <v>74.240000000000009</v>
+      </c>
+      <c r="C63">
+        <v>18.2958443111688</v>
+      </c>
+      <c r="D63">
+        <v>-44.920729235351601</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4392,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90390148-AE80-4B6E-8748-89A0FF71CD4F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4422,23 +4549,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>1185.9799999999998</v>
+        <v>1245.9799999999998</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>1943.9199999999992</v>
+        <v>2024.4199999999992</v>
       </c>
       <c r="C2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>2815</v>
+        <v>2933</v>
       </c>
       <c r="D2">
         <f>ROUND(SUM(A2:B2),2)</f>
-        <v>3129.9</v>
+        <v>3270.4</v>
       </c>
       <c r="E2">
         <f>SUM(Logs!H:H)</f>
-        <v>243242</v>
+        <v>253014</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70943A99-4216-4E52-97CF-A0B407637E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F82961-6662-418E-B876-125369A49FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1380" windowWidth="15360" windowHeight="8964" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Manually typed in 20241 so two data points would aggregate to same group than split to two different</t>
+  </si>
+  <si>
+    <t>2.00.5 /500m split average for 3hrs</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F118" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F126" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -2344,7 +2347,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G118" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G126" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -3495,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>44.24</v>
+        <v>44.21</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3506,7 +3509,7 @@
       </c>
       <c r="G117">
         <f t="shared" si="2"/>
-        <v>44.24</v>
+        <v>44.21</v>
       </c>
       <c r="H117">
         <v>3040</v>
@@ -3535,6 +3538,209 @@
       </c>
       <c r="H118">
         <v>1900</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>11.44</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="0"/>
+        <v>20243</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>11.44</v>
+      </c>
+      <c r="H119">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="0"/>
+        <v>20244</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H120">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B121">
+        <v>30</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="0"/>
+        <v>20244</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H121">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>41.13</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="0"/>
+        <v>20245</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>41.13</v>
+      </c>
+      <c r="H122">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B123">
+        <v>30</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="0"/>
+        <v>20245</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H123">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>45326</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="0"/>
+        <v>20246</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>40.770000000000003</v>
+      </c>
+      <c r="H124">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B125">
+        <v>25</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="0"/>
+        <v>20246</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H125">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>45333</v>
+      </c>
+      <c r="B126">
+        <v>45</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="0"/>
+        <v>20247</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="H126">
+        <v>2900</v>
       </c>
     </row>
   </sheetData>
@@ -3550,10 +3756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4501,13 +4707,58 @@
       </c>
       <c r="B63">
         <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A63,Logs!G:G)</f>
-        <v>74.240000000000009</v>
+        <v>85.65</v>
       </c>
       <c r="C63">
         <v>18.2958443111688</v>
       </c>
       <c r="D63">
         <v>-44.920729235351601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>20244</v>
+      </c>
+      <c r="B64">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A64,Logs!G:G)</f>
+        <v>62.3</v>
+      </c>
+      <c r="C64">
+        <v>18.223375231644098</v>
+      </c>
+      <c r="D64">
+        <v>-45.507726369403599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>20245</v>
+      </c>
+      <c r="B65">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A65,Logs!G:G)</f>
+        <v>71.13</v>
+      </c>
+      <c r="C65">
+        <v>18.148194376457901</v>
+      </c>
+      <c r="D65">
+        <v>-46.177237461543598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>20246</v>
+      </c>
+      <c r="B66">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A66,Logs!G:G)</f>
+        <v>65.77000000000001</v>
+      </c>
+      <c r="C66">
+        <v>18.076226491983199</v>
+      </c>
+      <c r="D66">
+        <v>-46.797400599461298</v>
       </c>
     </row>
   </sheetData>
@@ -4549,23 +4800,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>1245.9799999999998</v>
+        <v>1375.9799999999998</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>2024.4199999999992</v>
+        <v>2150.0299999999993</v>
       </c>
       <c r="C2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>2933</v>
+        <v>3118</v>
       </c>
       <c r="D2">
         <f>ROUND(SUM(A2:B2),2)</f>
-        <v>3270.4</v>
+        <v>3526.01</v>
       </c>
       <c r="E2">
         <f>SUM(Logs!H:H)</f>
-        <v>253014</v>
+        <v>269832</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F82961-6662-418E-B876-125369A49FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED2E02-D57C-45B9-A568-758AD373D31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>2.00.5 /500m split average for 3hrs</t>
+  </si>
+  <si>
+    <t>1.55.6 / 500m split for 2 hours</t>
+  </si>
+  <si>
+    <t>York Head Race</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F126" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F134" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -2347,7 +2353,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G126" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G134" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -3741,6 +3747,212 @@
       </c>
       <c r="H126">
         <v>2900</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B127">
+        <v>30</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="0"/>
+        <v>20247</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H127">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B128">
+        <v>30</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="0"/>
+        <v>20248</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H128">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B129">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="0"/>
+        <v>20248</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H129">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>43.35</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="0"/>
+        <v>20249</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>43.35</v>
+      </c>
+      <c r="H130">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B131">
+        <v>15.1</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="0"/>
+        <v>20249</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="2"/>
+        <v>15.1</v>
+      </c>
+      <c r="H131">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B132">
+        <v>30</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="0"/>
+        <v>20249</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H132">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>37</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="0"/>
+        <v>20249</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H133">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B134">
+        <v>15.5</v>
+      </c>
+      <c r="C134">
+        <v>20.56</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="0"/>
+        <v>202410</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>36.06</v>
+      </c>
+      <c r="H134">
+        <v>2069</v>
       </c>
     </row>
   </sheetData>
@@ -3756,10 +3968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4761,6 +4973,51 @@
         <v>-46.797400599461298</v>
       </c>
     </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>20247</v>
+      </c>
+      <c r="B67">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A67,Logs!G:G)</f>
+        <v>75</v>
+      </c>
+      <c r="C67">
+        <v>18.006172302063401</v>
+      </c>
+      <c r="D67">
+        <v>-47.502953695150701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>20248</v>
+      </c>
+      <c r="B68">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A68,Logs!G:G)</f>
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>17.950379583748202</v>
+      </c>
+      <c r="D68">
+        <v>-48.069756010491503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>20249</v>
+      </c>
+      <c r="B69">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A69,Logs!G:G)</f>
+        <v>99.45</v>
+      </c>
+      <c r="C69">
+        <v>17.877663259846599</v>
+      </c>
+      <c r="D69">
+        <v>-49.007225539382702</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4771,7 +5028,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4800,23 +5057,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>1375.9799999999998</v>
+        <v>1526.5799999999997</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>2150.0299999999993</v>
+        <v>2224.9399999999991</v>
       </c>
       <c r="C2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>3118</v>
+        <v>3228</v>
       </c>
       <c r="D2">
         <f>ROUND(SUM(A2:B2),2)</f>
-        <v>3526.01</v>
+        <v>3751.52</v>
       </c>
       <c r="E2">
         <f>SUM(Logs!H:H)</f>
-        <v>269832</v>
+        <v>283492</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED2E02-D57C-45B9-A568-758AD373D31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C710A6-3608-4C0D-9F30-104E8D51C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F134" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F146" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -2353,7 +2353,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G134" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G145" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -3953,6 +3953,291 @@
       </c>
       <c r="H134">
         <v>2069</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B135">
+        <v>30</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="0"/>
+        <v>202410</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H135">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>29.66</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="0"/>
+        <v>202411</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>29.66</v>
+      </c>
+      <c r="H136">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B137">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="0"/>
+        <v>202411</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H137">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B138">
+        <v>40</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="0"/>
+        <v>202412</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="0"/>
+        <v>202412</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H139">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="0"/>
+        <v>202413</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>34.549999999999997</v>
+      </c>
+      <c r="H140">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>10.3</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="0"/>
+        <v>202413</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>10.3</v>
+      </c>
+      <c r="H141">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>40.93</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="0"/>
+        <v>202413</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>40.93</v>
+      </c>
+      <c r="H142">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="0"/>
+        <v>202414</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>40.520000000000003</v>
+      </c>
+      <c r="H143">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>26.95</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="0"/>
+        <v>202414</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>26.95</v>
+      </c>
+      <c r="H144">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>14.18</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="0"/>
+        <v>202414</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>14.18</v>
+      </c>
+      <c r="H145">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="F146" t="str">
+        <f t="shared" si="0"/>
+        <v>19000</v>
       </c>
     </row>
   </sheetData>
@@ -3968,10 +4253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5016,6 +5301,81 @@
       </c>
       <c r="D69">
         <v>-49.007225539382702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>202410</v>
+      </c>
+      <c r="B70">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A70,Logs!G:G)</f>
+        <v>66.06</v>
+      </c>
+      <c r="C70">
+        <v>17.799700455675399</v>
+      </c>
+      <c r="D70">
+        <v>-49.625791783407898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>202411</v>
+      </c>
+      <c r="B71">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A71,Logs!G:G)</f>
+        <v>59.66</v>
+      </c>
+      <c r="C71">
+        <v>17.726803346249799</v>
+      </c>
+      <c r="D71">
+        <v>-50.1839662664526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>202412</v>
+      </c>
+      <c r="B72">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A72,Logs!G:G)</f>
+        <v>44</v>
+      </c>
+      <c r="C72">
+        <v>17.667420305954401</v>
+      </c>
+      <c r="D72">
+        <v>-50.593582019284803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>202413</v>
+      </c>
+      <c r="B73">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A73,Logs!G:G)</f>
+        <v>85.78</v>
+      </c>
+      <c r="C73">
+        <v>17.589344209189399</v>
+      </c>
+      <c r="D73">
+        <v>-51.402127902597499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>202414</v>
+      </c>
+      <c r="B74">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A74,Logs!G:G)</f>
+        <v>81.650000000000006</v>
+      </c>
+      <c r="C74">
+        <v>17.5214245192936</v>
+      </c>
+      <c r="D74">
+        <v>-52.171493144517697</v>
       </c>
     </row>
   </sheetData>
@@ -5057,23 +5417,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>1526.5799999999997</v>
+        <v>1630.5799999999997</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>2224.9399999999991</v>
+        <v>2422.0299999999988</v>
       </c>
       <c r="C2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>3228</v>
+        <v>3518</v>
       </c>
       <c r="D2">
         <f>ROUND(SUM(A2:B2),2)</f>
-        <v>3751.52</v>
+        <v>4052.61</v>
       </c>
       <c r="E2">
         <f>SUM(Logs!H:H)</f>
-        <v>283492</v>
+        <v>301362</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C710A6-3608-4C0D-9F30-104E8D51C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20827810-950B-406D-9E60-49B3C09EC14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F146" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F152" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -2353,7 +2353,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G145" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G152" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -4234,10 +4234,178 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B146">
+        <v>44.5</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
       <c r="F146" t="str">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>202415</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>44.5</v>
+      </c>
+      <c r="H146">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>17.32</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="0"/>
+        <v>202415</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>17.32</v>
+      </c>
+      <c r="H147">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>35.58</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="0"/>
+        <v>202416</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>35.58</v>
+      </c>
+      <c r="H148">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>23</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="0"/>
+        <v>202416</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H149">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>45.06</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="0"/>
+        <v>202417</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>45.06</v>
+      </c>
+      <c r="H150">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>22.67</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="0"/>
+        <v>202417</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>22.67</v>
+      </c>
+      <c r="H151">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>48.19</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="0"/>
+        <v>202418</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>48.19</v>
+      </c>
+      <c r="H152">
+        <v>2696</v>
       </c>
     </row>
   </sheetData>
@@ -4253,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5378,6 +5546,51 @@
         <v>-52.171493144517697</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>202415</v>
+      </c>
+      <c r="B75">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A75,Logs!G:G)</f>
+        <v>61.82</v>
+      </c>
+      <c r="C75">
+        <v>17.378942762561302</v>
+      </c>
+      <c r="D75">
+        <v>-52.734689980462399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>202416</v>
+      </c>
+      <c r="B76">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A76,Logs!G:G)</f>
+        <v>58.58</v>
+      </c>
+      <c r="C76">
+        <v>17.3062072963133</v>
+      </c>
+      <c r="D76">
+        <v>-53.283725270369303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>202417</v>
+      </c>
+      <c r="B77">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A77,Logs!G:G)</f>
+        <v>67.73</v>
+      </c>
+      <c r="C77">
+        <v>17.214995028888001</v>
+      </c>
+      <c r="D77">
+        <v>-53.920493315367601</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5387,7 +5600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90390148-AE80-4B6E-8748-89A0FF71CD4F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5417,23 +5630,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>1630.5799999999997</v>
+        <v>1675.0799999999997</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>2422.0299999999988</v>
+        <v>2613.849999999999</v>
       </c>
       <c r="C2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>3518</v>
+        <v>3800</v>
       </c>
       <c r="D2">
         <f>ROUND(SUM(A2:B2),2)</f>
-        <v>4052.61</v>
+        <v>4288.93</v>
       </c>
       <c r="E2">
         <f>SUM(Logs!H:H)</f>
-        <v>301362</v>
+        <v>315256</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20827810-950B-406D-9E60-49B3C09EC14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB422DCD-58F2-43C0-BD4D-456499176CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>York Head Race</t>
+  </si>
+  <si>
+    <t>TotalOcean</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="K148" sqref="K148"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F152" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F162" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -2353,7 +2356,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G152" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G162" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -4406,6 +4409,256 @@
       </c>
       <c r="H152">
         <v>2696</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>12.72</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="0"/>
+        <v>202418</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>12.72</v>
+      </c>
+      <c r="H153">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>8.68</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="0"/>
+        <v>202418</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>8.68</v>
+      </c>
+      <c r="H154">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>21.99</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="0"/>
+        <v>202418</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>21.99</v>
+      </c>
+      <c r="H155">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>40.99</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="0"/>
+        <v>202419</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="2"/>
+        <v>40.99</v>
+      </c>
+      <c r="H156">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>22.72</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="0"/>
+        <v>202419</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="2"/>
+        <v>22.72</v>
+      </c>
+      <c r="H157">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>42.08</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="0"/>
+        <v>202420</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="2"/>
+        <v>42.08</v>
+      </c>
+      <c r="H158">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>22.58</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="0"/>
+        <v>202420</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="2"/>
+        <v>22.58</v>
+      </c>
+      <c r="H159">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="0"/>
+        <v>202421</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>38.840000000000003</v>
+      </c>
+      <c r="H160">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="0"/>
+        <v>202421</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="2"/>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="H161">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>28.84</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="0"/>
+        <v>202422</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="2"/>
+        <v>28.84</v>
+      </c>
+      <c r="H162">
+        <v>1683</v>
       </c>
     </row>
   </sheetData>
@@ -4421,10 +4674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5591,6 +5844,66 @@
         <v>-53.920493315367601</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>202418</v>
+      </c>
+      <c r="B78">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A78,Logs!G:G)</f>
+        <v>91.58</v>
+      </c>
+      <c r="C78">
+        <v>17.010474424131999</v>
+      </c>
+      <c r="D78">
+        <v>-54.755948279109298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>202419</v>
+      </c>
+      <c r="B79">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A79,Logs!G:G)</f>
+        <v>63.71</v>
+      </c>
+      <c r="C79">
+        <v>16.994856971214301</v>
+      </c>
+      <c r="D79">
+        <v>-55.363471646075901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>202420</v>
+      </c>
+      <c r="B80">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A80,Logs!G:G)</f>
+        <v>64.66</v>
+      </c>
+      <c r="C80">
+        <v>17.010474423706999</v>
+      </c>
+      <c r="D80">
+        <v>-55.9905926188599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>202421</v>
+      </c>
+      <c r="B81">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A81,Logs!G:G)</f>
+        <v>58.760000000000005</v>
+      </c>
+      <c r="C81">
+        <v>16.972763869940799</v>
+      </c>
+      <c r="D81">
+        <v>-56.541412181462697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5598,7 +5911,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90390148-AE80-4B6E-8748-89A0FF71CD4F}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -5607,10 +5920,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -5618,35 +5932,42 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
         <v>1675.0799999999997</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>2613.849999999999</v>
+        <v>2853.2899999999981</v>
       </c>
       <c r="C2">
+        <f>SUM(Logs!D:D)</f>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>3800</v>
-      </c>
-      <c r="D2">
-        <f>ROUND(SUM(A2:B2),2)</f>
-        <v>4288.93</v>
+        <v>4152</v>
       </c>
       <c r="E2">
+        <f>ROUND(SUM(A2:C2),2)</f>
+        <v>4548.29</v>
+      </c>
+      <c r="F2">
         <f>SUM(Logs!H:H)</f>
-        <v>315256</v>
+        <v>330410</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB422DCD-58F2-43C0-BD4D-456499176CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276491E7-AFC2-4EAF-8A70-DE4E0F7D9646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F162" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F177" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -2356,7 +2356,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G162" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G176" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -4659,6 +4659,365 @@
       </c>
       <c r="H162">
         <v>1683</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>22.55</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="0"/>
+        <v>202422</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="2"/>
+        <v>22.55</v>
+      </c>
+      <c r="H163">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="0"/>
+        <v>202423</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="2"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="H164">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>9.74</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="0"/>
+        <v>202423</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="2"/>
+        <v>9.74</v>
+      </c>
+      <c r="H165">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>10.85</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="0"/>
+        <v>202423</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>10.85</v>
+      </c>
+      <c r="H166">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>24.77</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="0"/>
+        <v>202424</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="2"/>
+        <v>24.77</v>
+      </c>
+      <c r="H167">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>19.89</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="0"/>
+        <v>202424</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="2"/>
+        <v>19.89</v>
+      </c>
+      <c r="H168">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>39.909999999999997</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="0"/>
+        <v>202425</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="2"/>
+        <v>39.909999999999997</v>
+      </c>
+      <c r="H169">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>22.5</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="0"/>
+        <v>202425</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="H170">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45466</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>26.88</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="0"/>
+        <v>202426</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="2"/>
+        <v>26.88</v>
+      </c>
+      <c r="H171">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>45466</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>5.8</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="0"/>
+        <v>202426</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="H172">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>12.64</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="0"/>
+        <v>202426</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="2"/>
+        <v>12.64</v>
+      </c>
+      <c r="H173">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="0"/>
+        <v>202427</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="2"/>
+        <v>18.260000000000002</v>
+      </c>
+      <c r="H174">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B175">
+        <v>5.29</v>
+      </c>
+      <c r="C175">
+        <v>13.92</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="0"/>
+        <v>202427</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="2"/>
+        <v>19.21</v>
+      </c>
+      <c r="H175">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B176">
+        <v>15.31</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="0"/>
+        <v>202427</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="2"/>
+        <v>15.31</v>
+      </c>
+      <c r="H176">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45480</v>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="0"/>
+        <v>202428</v>
       </c>
     </row>
   </sheetData>
@@ -4674,10 +5033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5904,6 +6263,96 @@
         <v>-56.541412181462697</v>
       </c>
     </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>202422</v>
+      </c>
+      <c r="B82">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A82,Logs!G:G)</f>
+        <v>51.39</v>
+      </c>
+      <c r="C82">
+        <v>16.952560762666099</v>
+      </c>
+      <c r="D82">
+        <v>-57.023723110143003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>202423</v>
+      </c>
+      <c r="B83">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A83,Logs!G:G)</f>
+        <v>59.790000000000006</v>
+      </c>
+      <c r="C83">
+        <v>16.952600213678402</v>
+      </c>
+      <c r="D83">
+        <v>-57.587876104284803</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>202424</v>
+      </c>
+      <c r="B84">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A84,Logs!G:G)</f>
+        <v>44.66</v>
+      </c>
+      <c r="C84">
+        <v>16.9450171172392</v>
+      </c>
+      <c r="D84">
+        <v>-58.006326808735302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>202425</v>
+      </c>
+      <c r="B85">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A85,Logs!G:G)</f>
+        <v>62.41</v>
+      </c>
+      <c r="C85">
+        <v>16.946706120242101</v>
+      </c>
+      <c r="D85">
+        <v>-58.595241589782603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>202426</v>
+      </c>
+      <c r="B86">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A86,Logs!G:G)</f>
+        <v>45.32</v>
+      </c>
+      <c r="C86">
+        <v>16.964888750907399</v>
+      </c>
+      <c r="D86">
+        <v>-59.015472253076801</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>202427</v>
+      </c>
+      <c r="B87">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A87,Logs!G:G)</f>
+        <v>52.78</v>
+      </c>
+      <c r="C87">
+        <v>16.955816053918799</v>
+      </c>
+      <c r="D87">
+        <v>-59.512971575615403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5913,8 +6362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90390148-AE80-4B6E-8748-89A0FF71CD4F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5947,27 +6396,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>1675.0799999999997</v>
+        <v>1695.6799999999996</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>2853.2899999999981</v>
+        <v>3095.429999999998</v>
       </c>
       <c r="C2">
         <f>SUM(Logs!D:D)</f>
-        <v>19.920000000000002</v>
+        <v>44.69</v>
       </c>
       <c r="D2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>4152</v>
+        <v>4508</v>
       </c>
       <c r="E2">
         <f>ROUND(SUM(A2:C2),2)</f>
-        <v>4548.29</v>
+        <v>4835.8</v>
       </c>
       <c r="F2">
         <f>SUM(Logs!H:H)</f>
-        <v>330410</v>
+        <v>351356</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276491E7-AFC2-4EAF-8A70-DE4E0F7D9646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59371840-B161-414D-A459-4184FDDD50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,30 @@
   </si>
   <si>
     <t>TotalOcean</t>
+  </si>
+  <si>
+    <t>Ocean Hours</t>
+  </si>
+  <si>
+    <t>Ocean Minutes</t>
+  </si>
+  <si>
+    <t>Ocean Duration</t>
+  </si>
+  <si>
+    <t>Hartlepool Training day 1</t>
+  </si>
+  <si>
+    <t>Hartlepool Training day 2</t>
+  </si>
+  <si>
+    <t>Solo Sleep Anchor</t>
+  </si>
+  <si>
+    <t>Hartlepool Training day 3</t>
+  </si>
+  <si>
+    <t>Ocean Rowing Hours</t>
   </si>
 </sst>
 </file>
@@ -514,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="L167" sqref="L167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +550,7 @@
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +575,17 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44878</v>
       </c>
@@ -577,7 +610,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44885</v>
       </c>
@@ -591,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F177" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F188" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -602,7 +635,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44892</v>
       </c>
@@ -627,7 +660,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44899</v>
       </c>
@@ -652,7 +685,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44906</v>
       </c>
@@ -680,7 +713,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44910</v>
       </c>
@@ -705,7 +738,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44917</v>
       </c>
@@ -730,7 +763,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
@@ -758,7 +791,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44937</v>
       </c>
@@ -784,7 +817,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44938</v>
       </c>
@@ -810,7 +843,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44944</v>
       </c>
@@ -836,7 +869,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44945</v>
       </c>
@@ -862,7 +895,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44951</v>
       </c>
@@ -887,7 +920,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44955</v>
       </c>
@@ -912,7 +945,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44959</v>
       </c>
@@ -2356,7 +2389,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G176" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G188" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -4611,7 +4644,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45436</v>
       </c>
@@ -4635,8 +4668,18 @@
       <c r="H161">
         <v>1457</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161">
+        <v>30</v>
+      </c>
+      <c r="K161">
+        <f>I161+J161/60</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45438</v>
       </c>
@@ -4661,7 +4704,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45442</v>
       </c>
@@ -4686,7 +4729,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45445</v>
       </c>
@@ -4711,7 +4754,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45448</v>
       </c>
@@ -4736,7 +4779,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45449</v>
       </c>
@@ -4761,7 +4804,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45452</v>
       </c>
@@ -4785,8 +4828,18 @@
       <c r="H167">
         <v>2132</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <v>5</v>
+      </c>
+      <c r="J167">
+        <v>7</v>
+      </c>
+      <c r="K167">
+        <f>I167+J167/60</f>
+        <v>5.1166666666666663</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45455</v>
       </c>
@@ -4811,7 +4864,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45459</v>
       </c>
@@ -4836,7 +4889,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45462</v>
       </c>
@@ -4861,7 +4914,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45466</v>
       </c>
@@ -4886,7 +4939,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45466</v>
       </c>
@@ -4911,7 +4964,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45469</v>
       </c>
@@ -4936,7 +4989,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45473</v>
       </c>
@@ -4961,7 +5014,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45474</v>
       </c>
@@ -4986,7 +5039,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45477</v>
       </c>
@@ -5011,13 +5064,366 @@
         <v>950</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45480</v>
       </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>31.3</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
       <c r="F177" t="str">
         <f t="shared" si="0"/>
         <v>202428</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="2"/>
+        <v>31.3</v>
+      </c>
+      <c r="H177">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>20.94</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="0"/>
+        <v>202428</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="2"/>
+        <v>20.94</v>
+      </c>
+      <c r="H178">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>21.02</v>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="0"/>
+        <v>202429</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="2"/>
+        <v>21.02</v>
+      </c>
+      <c r="H179">
+        <v>1970</v>
+      </c>
+      <c r="I179">
+        <v>3</v>
+      </c>
+      <c r="J179">
+        <v>54</v>
+      </c>
+      <c r="K179">
+        <f>I179+J179/60</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>21.27</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="0"/>
+        <v>202429</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="2"/>
+        <v>21.27</v>
+      </c>
+      <c r="H180">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>28.29</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="0"/>
+        <v>202430</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="2"/>
+        <v>28.29</v>
+      </c>
+      <c r="H181">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>5.72</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="0"/>
+        <v>202430</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="2"/>
+        <v>5.72</v>
+      </c>
+      <c r="H182">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>13.16</v>
+      </c>
+      <c r="E183" t="s">
+        <v>42</v>
+      </c>
+      <c r="F183" t="str">
+        <f t="shared" si="0"/>
+        <v>202430</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="2"/>
+        <v>13.16</v>
+      </c>
+      <c r="H183">
+        <v>2432</v>
+      </c>
+      <c r="I183">
+        <v>5</v>
+      </c>
+      <c r="J183">
+        <v>30</v>
+      </c>
+      <c r="K183">
+        <f>I183+J183/60</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>26.34</v>
+      </c>
+      <c r="E184" t="s">
+        <v>43</v>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="0"/>
+        <v>202430</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="2"/>
+        <v>26.34</v>
+      </c>
+      <c r="H184">
+        <v>2643</v>
+      </c>
+      <c r="I184">
+        <v>7</v>
+      </c>
+      <c r="J184">
+        <v>19</v>
+      </c>
+      <c r="K184">
+        <f>I184+J184/60</f>
+        <v>7.3166666666666664</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>4.55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>44</v>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="0"/>
+        <v>202430</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="2"/>
+        <v>4.55</v>
+      </c>
+      <c r="H185">
+        <v>1344</v>
+      </c>
+      <c r="I185">
+        <v>10</v>
+      </c>
+      <c r="J185">
+        <v>52</v>
+      </c>
+      <c r="K185">
+        <f>I185+J185/60</f>
+        <v>10.866666666666667</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45501</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>6.04</v>
+      </c>
+      <c r="E186" t="s">
+        <v>45</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" si="0"/>
+        <v>202431</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="2"/>
+        <v>6.04</v>
+      </c>
+      <c r="H186">
+        <v>716</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>47</v>
+      </c>
+      <c r="K186">
+        <f>I186+J186/60</f>
+        <v>1.7833333333333332</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>21.01</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="0"/>
+        <v>202431</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="2"/>
+        <v>21.01</v>
+      </c>
+      <c r="H187">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>39.97</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="0"/>
+        <v>202432</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="2"/>
+        <v>39.97</v>
+      </c>
+      <c r="H188">
+        <v>3035</v>
       </c>
     </row>
   </sheetData>
@@ -5033,10 +5439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6353,6 +6759,66 @@
         <v>-59.512971575615403</v>
       </c>
     </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>202428</v>
+      </c>
+      <c r="B88">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A88,Logs!G:G)</f>
+        <v>52.24</v>
+      </c>
+      <c r="C88">
+        <v>16.931686699118501</v>
+      </c>
+      <c r="D88">
+        <v>-60.015006585518201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>202429</v>
+      </c>
+      <c r="B89">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A89,Logs!G:G)</f>
+        <v>42.29</v>
+      </c>
+      <c r="C89">
+        <v>16.9438721464766</v>
+      </c>
+      <c r="D89">
+        <v>-60.396693025070299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>202430</v>
+      </c>
+      <c r="B90">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A90,Logs!G:G)</f>
+        <v>78.06</v>
+      </c>
+      <c r="C90">
+        <v>16.928165446830601</v>
+      </c>
+      <c r="D90">
+        <v>-61.132088333846902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>202431</v>
+      </c>
+      <c r="B91">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A91,Logs!G:G)</f>
+        <v>27.05</v>
+      </c>
+      <c r="C91">
+        <v>16.945659232014901</v>
+      </c>
+      <c r="D91">
+        <v>-61.382404437553497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6360,9 +6826,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90390148-AE80-4B6E-8748-89A0FF71CD4F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -6371,9 +6837,10 @@
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -6392,31 +6859,38 @@
       <c r="F1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
         <v>1695.6799999999996</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>3095.429999999998</v>
+        <v>3263.929999999998</v>
       </c>
       <c r="C2">
         <f>SUM(Logs!D:D)</f>
-        <v>44.69</v>
+        <v>115.8</v>
       </c>
       <c r="D2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>4508</v>
+        <v>4756</v>
       </c>
       <c r="E2">
         <f>ROUND(SUM(A2:C2),2)</f>
-        <v>4835.8</v>
+        <v>5075.41</v>
       </c>
       <c r="F2">
         <f>SUM(Logs!H:H)</f>
-        <v>351356</v>
+        <v>373262</v>
+      </c>
+      <c r="G2">
+        <f>SUM(Logs!K:K)</f>
+        <v>38.983333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59371840-B161-414D-A459-4184FDDD50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B74C1D-CADE-44B8-A7E4-A47380A074E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>Ocean Rowing Hours</t>
+  </si>
+  <si>
+    <t>Maintenance Day</t>
+  </si>
+  <si>
+    <t>Great Ouse Marathon 2024</t>
   </si>
 </sst>
 </file>
@@ -538,16 +544,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="L167" sqref="L167"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189:F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -624,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F188" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F211" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -2389,7 +2397,7 @@
         <v>202332</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G188" si="2">SUM(B71:D71)</f>
+        <f t="shared" ref="G71:G205" si="2">SUM(B71:D71)</f>
         <v>21.6</v>
       </c>
       <c r="H71">
@@ -5424,6 +5432,647 @@
       </c>
       <c r="H188">
         <v>3035</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>3.25</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="F189" t="str">
+        <f t="shared" si="0"/>
+        <v>202432</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="H189">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>22.62</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="0"/>
+        <v>202432</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="2"/>
+        <v>22.62</v>
+      </c>
+      <c r="H190">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45514</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>30.71</v>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="0"/>
+        <v>202432</v>
+      </c>
+      <c r="G191">
+        <f>SUM(B191:D191)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H191">
+        <v>3644</v>
+      </c>
+      <c r="I191">
+        <v>15</v>
+      </c>
+      <c r="J191">
+        <v>24</v>
+      </c>
+      <c r="K191">
+        <f>I191+J191/60</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>22.32</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="0"/>
+        <v>202433</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="2"/>
+        <v>22.32</v>
+      </c>
+      <c r="H192">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45522</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>23.56</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>47</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="0"/>
+        <v>202434</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="2"/>
+        <v>23.56</v>
+      </c>
+      <c r="H193">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>21.03</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" si="0"/>
+        <v>202434</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="2"/>
+        <v>21.03</v>
+      </c>
+      <c r="H194">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45529</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>35.11</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" si="0"/>
+        <v>202435</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="2"/>
+        <v>35.11</v>
+      </c>
+      <c r="H195">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>21.26</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="F196" t="str">
+        <f t="shared" si="0"/>
+        <v>202435</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="2"/>
+        <v>21.26</v>
+      </c>
+      <c r="H196">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>21.88</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>48</v>
+      </c>
+      <c r="F197" t="str">
+        <f t="shared" si="0"/>
+        <v>202436</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="2"/>
+        <v>21.88</v>
+      </c>
+      <c r="H197">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>48.47</v>
+      </c>
+      <c r="F198" t="str">
+        <f t="shared" si="0"/>
+        <v>202436</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="2"/>
+        <v>48.47</v>
+      </c>
+      <c r="H198">
+        <v>9347</v>
+      </c>
+      <c r="I198">
+        <v>56</v>
+      </c>
+      <c r="J198">
+        <v>50</v>
+      </c>
+      <c r="K198">
+        <f>I198+J198/60</f>
+        <v>56.833333333333336</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>22.32</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="F199" t="str">
+        <f t="shared" si="0"/>
+        <v>202437</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="2"/>
+        <v>22.32</v>
+      </c>
+      <c r="H199">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>8.06</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="0"/>
+        <v>202437</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="2"/>
+        <v>8.06</v>
+      </c>
+      <c r="H200">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="F201" t="str">
+        <f t="shared" si="0"/>
+        <v>202437</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="2"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H201">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>13.11</v>
+      </c>
+      <c r="F202" t="str">
+        <f t="shared" si="0"/>
+        <v>202437</v>
+      </c>
+      <c r="G202">
+        <f>SUM(B202:D202)</f>
+        <v>13.11</v>
+      </c>
+      <c r="H202">
+        <v>1000</v>
+      </c>
+      <c r="I202">
+        <v>12</v>
+      </c>
+      <c r="J202">
+        <v>23</v>
+      </c>
+      <c r="K202">
+        <f>I202+J202/60</f>
+        <v>12.383333333333333</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>29.99</v>
+      </c>
+      <c r="F203" t="str">
+        <f t="shared" si="0"/>
+        <v>202437</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="2"/>
+        <v>29.99</v>
+      </c>
+      <c r="H203">
+        <v>2759</v>
+      </c>
+      <c r="I203">
+        <v>10</v>
+      </c>
+      <c r="J203">
+        <v>3</v>
+      </c>
+      <c r="K203">
+        <f>I203+J203/60</f>
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45550</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>25</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="F204" t="str">
+        <f t="shared" si="0"/>
+        <v>202438</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H204">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>14.05</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="F205" t="str">
+        <f t="shared" si="0"/>
+        <v>202438</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="2"/>
+        <v>14.05</v>
+      </c>
+      <c r="H205">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>18.47</v>
+      </c>
+      <c r="F206" t="str">
+        <f t="shared" si="0"/>
+        <v>202438</v>
+      </c>
+      <c r="G206">
+        <f t="shared" ref="G206:G211" si="3">SUM(B206:D206)</f>
+        <v>18.47</v>
+      </c>
+      <c r="H206">
+        <v>3361</v>
+      </c>
+      <c r="I206">
+        <v>17</v>
+      </c>
+      <c r="J206">
+        <v>5</v>
+      </c>
+      <c r="K206">
+        <f>I206+J206/60</f>
+        <v>17.083333333333332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>11.3</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" si="0"/>
+        <v>202439</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="3"/>
+        <v>11.3</v>
+      </c>
+      <c r="H207">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>56.83</v>
+      </c>
+      <c r="F208" t="str">
+        <f t="shared" si="0"/>
+        <v>202439</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="3"/>
+        <v>56.83</v>
+      </c>
+      <c r="H208">
+        <v>5738</v>
+      </c>
+      <c r="I208">
+        <v>24</v>
+      </c>
+      <c r="J208">
+        <v>23</v>
+      </c>
+      <c r="K208">
+        <f>I208+J208/60</f>
+        <v>24.383333333333333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>45568</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>8.32</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="0"/>
+        <v>202440</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="3"/>
+        <v>8.32</v>
+      </c>
+      <c r="H209">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>31.28</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="0"/>
+        <v>202441</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="3"/>
+        <v>31.28</v>
+      </c>
+      <c r="H210">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>8.59</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="0"/>
+        <v>202441</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="3"/>
+        <v>8.59</v>
+      </c>
+      <c r="H211">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5439,10 +6088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6819,6 +7468,156 @@
         <v>-61.382404437553497</v>
       </c>
     </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>202432</v>
+      </c>
+      <c r="B92">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A92,Logs!G:G)</f>
+        <v>96.550000000000011</v>
+      </c>
+      <c r="C92">
+        <v>16.9736969813145</v>
+      </c>
+      <c r="D92">
+        <v>-62.289699924107303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>202433</v>
+      </c>
+      <c r="B93">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A93,Logs!G:G)</f>
+        <v>22.32</v>
+      </c>
+      <c r="C93">
+        <v>17.154676872536601</v>
+      </c>
+      <c r="D93">
+        <v>-62.380382381873403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>202434</v>
+      </c>
+      <c r="B94">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A94,Logs!G:G)</f>
+        <v>44.59</v>
+      </c>
+      <c r="C94">
+        <v>17.458258736043199</v>
+      </c>
+      <c r="D94">
+        <v>-62.654218471000902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>202435</v>
+      </c>
+      <c r="B95">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A95,Logs!G:G)</f>
+        <v>56.370000000000005</v>
+      </c>
+      <c r="C95">
+        <v>17.709411969838801</v>
+      </c>
+      <c r="D95">
+        <v>-63.1165428819046</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>202436</v>
+      </c>
+      <c r="B96">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A96,Logs!G:G)</f>
+        <v>70.349999999999994</v>
+      </c>
+      <c r="C96">
+        <v>18.025383612486799</v>
+      </c>
+      <c r="D96">
+        <v>-63.692288643927803</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>202437</v>
+      </c>
+      <c r="B97">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A97,Logs!G:G)</f>
+        <v>77.87</v>
+      </c>
+      <c r="C97">
+        <v>18.554537422092199</v>
+      </c>
+      <c r="D97">
+        <v>-64.175918241276406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>202438</v>
+      </c>
+      <c r="B98">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A98,Logs!G:G)</f>
+        <v>57.519999999999996</v>
+      </c>
+      <c r="C98">
+        <v>18.6877859037726</v>
+      </c>
+      <c r="D98">
+        <v>-64.702995815931004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>202439</v>
+      </c>
+      <c r="B99">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A99,Logs!G:G)</f>
+        <v>68.13</v>
+      </c>
+      <c r="C99">
+        <v>19.0415244613447</v>
+      </c>
+      <c r="D99">
+        <v>-65.232219228555905</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>202440</v>
+      </c>
+      <c r="B100">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A100,Logs!G:G)</f>
+        <v>8.32</v>
+      </c>
+      <c r="C100">
+        <v>19.087339658179399</v>
+      </c>
+      <c r="D100">
+        <v>-65.294988942413099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>202441</v>
+      </c>
+      <c r="B101">
+        <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A101,Logs!G:G)</f>
+        <v>39.870000000000005</v>
+      </c>
+      <c r="C101">
+        <v>19.287270188380202</v>
+      </c>
+      <c r="D101">
+        <v>-65.6087086151432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6829,7 +7628,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6870,27 +7669,27 @@
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>3263.929999999998</v>
+        <v>3568.2699999999995</v>
       </c>
       <c r="C2">
         <f>SUM(Logs!D:D)</f>
-        <v>115.8</v>
+        <v>313.37999999999994</v>
       </c>
       <c r="D2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>4756</v>
+        <v>5203</v>
       </c>
       <c r="E2">
         <f>ROUND(SUM(A2:C2),2)</f>
-        <v>5075.41</v>
+        <v>5577.33</v>
       </c>
       <c r="F2">
         <f>SUM(Logs!H:H)</f>
-        <v>373262</v>
+        <v>417760</v>
       </c>
       <c r="G2">
         <f>SUM(Logs!K:K)</f>
-        <v>38.983333333333334</v>
+        <v>175.11666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/assets/TrainingData/TrainingBlogTimeLapse.xlsx
+++ b/assets/TrainingData/TrainingBlogTimeLapse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake\Documents\AtlanticCampaignGitHub\Atlantic2025\assets\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B74C1D-CADE-44B8-A7E4-A47380A074E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEBB541-91DE-43FB-A70F-F52CD7BAC391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9956CCA0-EDC1-448C-805F-C6625285F815}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -544,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FF2C-4335-4855-AACD-0416F2175CD4}">
-  <dimension ref="A1:K211"/>
+  <dimension ref="A1:K234"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189:F210"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="J234" sqref="J234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F211" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
+        <f t="shared" ref="F3:F234" si="0">_xlfn.CONCAT(YEAR(A3),WEEKNUM(A3))</f>
         <v>202248</v>
       </c>
       <c r="G3">
@@ -5923,7 +5923,7 @@
         <v>202438</v>
       </c>
       <c r="G206">
-        <f t="shared" ref="G206:G211" si="3">SUM(B206:D206)</f>
+        <f t="shared" ref="G206:G234" si="3">SUM(B206:D206)</f>
         <v>18.47</v>
       </c>
       <c r="H206">
@@ -6000,7 +6000,7 @@
         <v>24.383333333333333</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45568</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45571</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45575</v>
       </c>
@@ -6073,6 +6073,601 @@
       </c>
       <c r="H211">
         <v>486</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45578</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>33.49</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="F212" t="str">
+        <f t="shared" si="0"/>
+        <v>202442</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="3"/>
+        <v>33.49</v>
+      </c>
+      <c r="H212">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B213">
+        <v>15.26</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" si="0"/>
+        <v>202442</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="3"/>
+        <v>15.26</v>
+      </c>
+      <c r="H213">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>48.47</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="0"/>
+        <v>202442</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="3"/>
+        <v>48.47</v>
+      </c>
+      <c r="H214">
+        <v>5135</v>
+      </c>
+      <c r="I214">
+        <v>11</v>
+      </c>
+      <c r="J214">
+        <v>35</v>
+      </c>
+      <c r="K214">
+        <f>I214+J214/60</f>
+        <v>11.583333333333334</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B215">
+        <v>15.11</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" si="0"/>
+        <v>202443</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="3"/>
+        <v>15.11</v>
+      </c>
+      <c r="H215">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45592</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="0"/>
+        <v>202444</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="3"/>
+        <v>35.119999999999997</v>
+      </c>
+      <c r="H216">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B217">
+        <v>15.06</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="0"/>
+        <v>202444</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="3"/>
+        <v>15.06</v>
+      </c>
+      <c r="H217">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>83.03</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="0"/>
+        <v>202444</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="3"/>
+        <v>83.03</v>
+      </c>
+      <c r="H218">
+        <v>9923</v>
+      </c>
+      <c r="I218">
+        <v>37</v>
+      </c>
+      <c r="J218">
+        <v>54</v>
+      </c>
+      <c r="K218">
+        <f>I218+J218/60</f>
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B219">
+        <v>15.19</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="F219" t="str">
+        <f t="shared" si="0"/>
+        <v>202445</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="3"/>
+        <v>15.19</v>
+      </c>
+      <c r="H219">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>30.47</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="F220" t="str">
+        <f t="shared" si="0"/>
+        <v>202446</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="3"/>
+        <v>30.47</v>
+      </c>
+      <c r="H220">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B221">
+        <v>30</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="F221" t="str">
+        <f t="shared" si="0"/>
+        <v>202415</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H221">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="0"/>
+        <v>202447</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="3"/>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="H222">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B223">
+        <v>15.35</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="F223" t="str">
+        <f t="shared" si="0"/>
+        <v>202447</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="3"/>
+        <v>15.35</v>
+      </c>
+      <c r="H223">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B224">
+        <v>15.41</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="F224" t="str">
+        <f t="shared" si="0"/>
+        <v>202447</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="3"/>
+        <v>15.41</v>
+      </c>
+      <c r="H224">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B225">
+        <v>30</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="F225" t="str">
+        <f t="shared" si="0"/>
+        <v>202448</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H225">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B226">
+        <v>20</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="F226" t="str">
+        <f t="shared" si="0"/>
+        <v>202448</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H226">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B227">
+        <v>15.6</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="F227" t="str">
+        <f t="shared" si="0"/>
+        <v>202448</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="3"/>
+        <v>15.6</v>
+      </c>
+      <c r="H227">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>33.090000000000003</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="F228" t="str">
+        <f t="shared" si="0"/>
+        <v>202449</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="3"/>
+        <v>33.090000000000003</v>
+      </c>
+      <c r="H228">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B229">
+        <v>15.28</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="F229" t="str">
+        <f t="shared" si="0"/>
+        <v>202449</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="3"/>
+        <v>15.28</v>
+      </c>
+      <c r="H229">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B230">
+        <v>21.6</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="F230" t="str">
+        <f t="shared" si="0"/>
+        <v>202450</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="3"/>
+        <v>21.6</v>
+      </c>
+      <c r="H230">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>10.97</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="F231" t="str">
+        <f t="shared" si="0"/>
+        <v>202451</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="3"/>
+        <v>10.97</v>
+      </c>
+      <c r="H231">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B232">
+        <v>2.5</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="0"/>
+        <v>202451</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="H232">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B233">
+        <v>15.54</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="0"/>
+        <v>202451</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="3"/>
+        <v>15.54</v>
+      </c>
+      <c r="H233">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B234">
+        <v>30.9</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="0"/>
+        <v>202452</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="3"/>
+        <v>30.9</v>
+      </c>
+      <c r="H234">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -6090,8 +6685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DA6E9-10D0-457E-98AF-F8512C9ECF35}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7219,7 +7814,7 @@
       </c>
       <c r="B75">
         <f ca="1">SUMIF(Logs!F:G,WeeklyTotalsCoords!A75,Logs!G:G)</f>
-        <v>61.82</v>
+        <v>91.82</v>
       </c>
       <c r="C75">
         <v>17.378942762561302</v>
@@ -7627,15 +8222,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90390148-AE80-4B6E-8748-89A0FF71CD4F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7665,31 +8261,31 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(Logs!B:B)</f>
-        <v>1695.6799999999996</v>
+        <v>1968.4799999999993</v>
       </c>
       <c r="B2">
         <f>SUM(Logs!C:C)</f>
-        <v>3568.2699999999995</v>
+        <v>3744.9599999999991</v>
       </c>
       <c r="C2">
         <f>SUM(Logs!D:D)</f>
-        <v>313.37999999999994</v>
+        <v>444.87999999999988</v>
       </c>
       <c r="D2">
         <f>ROUND(B2/0.68,0)-ROUND(30/0.68,0)</f>
-        <v>5203</v>
+        <v>5463</v>
       </c>
       <c r="E2">
         <f>ROUND(SUM(A2:C2),2)</f>
-        <v>5577.33</v>
+        <v>6158.32</v>
       </c>
       <c r="F2">
         <f>SUM(Logs!H:H)</f>
-        <v>417760</v>
+        <v>457369</v>
       </c>
       <c r="G2">
         <f>SUM(Logs!K:K)</f>
-        <v>175.11666666666667</v>
+        <v>224.60000000000002</v>
       </c>
     </row>
   </sheetData>
